--- a/testing/Testing Spreadsheets/Form Field Validations- Login.xlsx
+++ b/testing/Testing Spreadsheets/Form Field Validations- Login.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Page Name</t>
   </si>
@@ -37,49 +37,46 @@
     <t>login.html</t>
   </si>
   <si>
-    <t>loginForm</t>
-  </si>
-  <si>
-    <t>Login_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
+    <t>login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>field.1</t>
   </si>
   <si>
-    <t>string</t>
+    <t>coolkid</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>field.2</t>
   </si>
   <si>
+    <t>piadfbiasdhf</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>field.3</t>
   </si>
   <si>
+    <t>hello</t>
+  </si>
+  <si>
     <t>field.4</t>
   </si>
   <si>
-    <t>field.5</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>field.6</t>
-  </si>
-  <si>
-    <t>field.7</t>
-  </si>
-  <si>
-    <t>field.8</t>
-  </si>
-  <si>
-    <t>field.9</t>
-  </si>
-  <si>
-    <t>field.10</t>
+    <t>nooooooo</t>
   </si>
 </sst>
 </file>
@@ -182,8 +179,12 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -196,155 +197,107 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
